--- a/artfynd/Stensjöåsen artfynd.xlsx
+++ b/artfynd/Stensjöåsen artfynd.xlsx
@@ -680,32 +680,32 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>88637967</v>
+        <v>88637973</v>
       </c>
       <c r="B2" t="n">
-        <v>91210</v>
+        <v>92727</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5447</v>
+        <v>2079</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>678865</v>
+        <v>678827</v>
       </c>
       <c r="R2" t="n">
-        <v>7104071</v>
+        <v>7103976</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -785,39 +785,37 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>88637989</v>
+        <v>88637967</v>
       </c>
       <c r="B3" t="n">
-        <v>5492</v>
+        <v>91210</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>101410</v>
+        <v>5447</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -825,10 +823,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>678734</v>
+        <v>678865</v>
       </c>
       <c r="R3" t="n">
-        <v>7104265</v>
+        <v>7104071</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -892,10 +890,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>88637973</v>
+        <v>88637989</v>
       </c>
       <c r="B4" t="n">
-        <v>92727</v>
+        <v>5492</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -903,26 +901,28 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2079</v>
+        <v>101410</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -930,10 +930,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>678827</v>
+        <v>678734</v>
       </c>
       <c r="R4" t="n">
-        <v>7103976</v>
+        <v>7104265</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -997,32 +997,32 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>88638040</v>
+        <v>88637963</v>
       </c>
       <c r="B5" t="n">
-        <v>92529</v>
+        <v>91406</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4362</v>
+        <v>1503</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1035,10 +1035,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>678832</v>
+        <v>678858</v>
       </c>
       <c r="R5" t="n">
-        <v>7104049</v>
+        <v>7103986</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1102,32 +1102,32 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>88637963</v>
+        <v>88638040</v>
       </c>
       <c r="B6" t="n">
-        <v>91406</v>
+        <v>92529</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1503</v>
+        <v>4362</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1140,10 +1140,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>678858</v>
+        <v>678832</v>
       </c>
       <c r="R6" t="n">
-        <v>7103986</v>
+        <v>7104049</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1734,32 +1734,32 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>88637958</v>
+        <v>88637979</v>
       </c>
       <c r="B12" t="n">
-        <v>90283</v>
+        <v>92535</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1962</v>
+        <v>4364</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1772,10 +1772,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>678877</v>
+        <v>678706</v>
       </c>
       <c r="R12" t="n">
-        <v>7104118</v>
+        <v>7104263</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1839,32 +1839,32 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>88637979</v>
+        <v>88637958</v>
       </c>
       <c r="B13" t="n">
-        <v>92535</v>
+        <v>90283</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4364</v>
+        <v>1962</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1877,10 +1877,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>678706</v>
+        <v>678877</v>
       </c>
       <c r="R13" t="n">
-        <v>7104263</v>
+        <v>7104118</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>

--- a/artfynd/Stensjöåsen artfynd.xlsx
+++ b/artfynd/Stensjöåsen artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>88637973</v>
+        <v>88637989</v>
       </c>
       <c r="B2" t="n">
-        <v>92727</v>
+        <v>5492</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,26 +691,28 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2079</v>
+        <v>101410</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -718,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>678827</v>
+        <v>678734</v>
       </c>
       <c r="R2" t="n">
-        <v>7103976</v>
+        <v>7104265</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -785,32 +787,32 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>88637967</v>
+        <v>88637973</v>
       </c>
       <c r="B3" t="n">
-        <v>91210</v>
+        <v>92727</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5447</v>
+        <v>2079</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -823,10 +825,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>678865</v>
+        <v>678827</v>
       </c>
       <c r="R3" t="n">
-        <v>7104071</v>
+        <v>7103976</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -890,39 +892,37 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>88637989</v>
+        <v>88637967</v>
       </c>
       <c r="B4" t="n">
-        <v>5492</v>
+        <v>91210</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>101410</v>
+        <v>5447</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -930,10 +930,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>678734</v>
+        <v>678865</v>
       </c>
       <c r="R4" t="n">
-        <v>7104265</v>
+        <v>7104071</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>

--- a/artfynd/Stensjöåsen artfynd.xlsx
+++ b/artfynd/Stensjöåsen artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>88637989</v>
+        <v>88637973</v>
       </c>
       <c r="B2" t="n">
-        <v>5492</v>
+        <v>92727</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,28 +691,26 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>101410</v>
+        <v>2079</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -720,10 +718,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>678734</v>
+        <v>678827</v>
       </c>
       <c r="R2" t="n">
-        <v>7104265</v>
+        <v>7103976</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -787,10 +785,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>88637973</v>
+        <v>88637989</v>
       </c>
       <c r="B3" t="n">
-        <v>92727</v>
+        <v>5492</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -798,26 +796,28 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2079</v>
+        <v>101410</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -825,10 +825,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>678827</v>
+        <v>678734</v>
       </c>
       <c r="R3" t="n">
-        <v>7103976</v>
+        <v>7104265</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -997,32 +997,32 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>88637963</v>
+        <v>88638040</v>
       </c>
       <c r="B5" t="n">
-        <v>91406</v>
+        <v>92529</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1503</v>
+        <v>4362</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1035,10 +1035,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>678858</v>
+        <v>678832</v>
       </c>
       <c r="R5" t="n">
-        <v>7103986</v>
+        <v>7104049</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1102,32 +1102,32 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>88638040</v>
+        <v>88637963</v>
       </c>
       <c r="B6" t="n">
-        <v>92529</v>
+        <v>91406</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4362</v>
+        <v>1503</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1140,10 +1140,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>678832</v>
+        <v>678858</v>
       </c>
       <c r="R6" t="n">
-        <v>7104049</v>
+        <v>7103986</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1207,32 +1207,32 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>88637978</v>
+        <v>88638008</v>
       </c>
       <c r="B7" t="n">
-        <v>92565</v>
+        <v>92547</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>232140</v>
+        <v>4366</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tajgataggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellodon secretus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Niemelä &amp; Kinnunen</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1245,10 +1245,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>678831</v>
+        <v>678925</v>
       </c>
       <c r="R7" t="n">
-        <v>7103976</v>
+        <v>7103899</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1312,32 +1312,32 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>88638008</v>
+        <v>88637978</v>
       </c>
       <c r="B8" t="n">
-        <v>92547</v>
+        <v>92565</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4366</v>
+        <v>232140</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Tajgataggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellodon secretus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Niemelä &amp; Kinnunen</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1350,10 +1350,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>678925</v>
+        <v>678831</v>
       </c>
       <c r="R8" t="n">
-        <v>7103899</v>
+        <v>7103976</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1734,32 +1734,32 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>88637979</v>
+        <v>88637958</v>
       </c>
       <c r="B12" t="n">
-        <v>92535</v>
+        <v>90283</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4364</v>
+        <v>1962</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1772,10 +1772,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>678706</v>
+        <v>678877</v>
       </c>
       <c r="R12" t="n">
-        <v>7104263</v>
+        <v>7104118</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1839,32 +1839,32 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>88637958</v>
+        <v>88637979</v>
       </c>
       <c r="B13" t="n">
-        <v>90283</v>
+        <v>92535</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1962</v>
+        <v>4364</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1877,10 +1877,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>678877</v>
+        <v>678706</v>
       </c>
       <c r="R13" t="n">
-        <v>7104118</v>
+        <v>7104263</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
